--- a/TEST_RESOURCES/registerData.xlsx
+++ b/TEST_RESOURCES/registerData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Rodrigo\Documents\Git\Github\Projection\spring-backend-test\TEST_RESOURCES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -512,10 +512,20 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" customWidth="1"/>
+    <col min="9" max="9" width="35.28515625" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
